--- a/apps/templates/xlsx/kn.xlsx
+++ b/apps/templates/xlsx/kn.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>First Name</t>
   </si>
@@ -49,6 +49,9 @@
     <t>Booked Program</t>
   </si>
   <si>
+    <t>Learning Plan Start Date</t>
+  </si>
+  <si>
     <t>Learning Plan End Date</t>
   </si>
   <si>
@@ -61,79 +64,43 @@
     <t>On track</t>
   </si>
   <si>
-    <t>Course 1</t>
-  </si>
-  <si>
-    <t>Completion Status of Course 1</t>
-  </si>
-  <si>
-    <t>Course 2</t>
-  </si>
-  <si>
-    <t>Completion Status of Course 2</t>
-  </si>
-  <si>
-    <t>Course 3</t>
-  </si>
-  <si>
-    <t>Completion Status of Course 3</t>
-  </si>
-  <si>
-    <t>Course 4</t>
-  </si>
-  <si>
-    <t>Completion Status of Course 4</t>
-  </si>
-  <si>
-    <t>Course 5</t>
-  </si>
-  <si>
-    <t>Completion Status of Course 5</t>
-  </si>
-  <si>
-    <t>Course 6</t>
-  </si>
-  <si>
-    <t>Completion Status of Course 6</t>
-  </si>
-  <si>
-    <t>Course 7</t>
-  </si>
-  <si>
-    <t>Completion Status of Course 7</t>
-  </si>
-  <si>
-    <t>Course 8</t>
-  </si>
-  <si>
-    <t>Completion Status of Course 8</t>
-  </si>
-  <si>
-    <t>Course 9</t>
-  </si>
-  <si>
-    <t>Completion Status of Course 9</t>
-  </si>
-  <si>
-    <t>Course 10</t>
-  </si>
-  <si>
-    <t>Completion Status of Course 10</t>
-  </si>
-  <si>
-    <t>Course 11</t>
-  </si>
-  <si>
-    <t>Completion Status of Course 11</t>
-  </si>
-  <si>
-    <t>Course 12</t>
-  </si>
-  <si>
-    <t>Completion Status of Course 12</t>
-  </si>
-  <si>
-    <t>Microlearnings</t>
+    <t>Module 1 – Status</t>
+  </si>
+  <si>
+    <t>Module 1 - Completion Date</t>
+  </si>
+  <si>
+    <t>Module 2 – Status</t>
+  </si>
+  <si>
+    <t>Module 2 - Completion Date</t>
+  </si>
+  <si>
+    <t>Module 3 – Status</t>
+  </si>
+  <si>
+    <t>Module 3 - Completion Date</t>
+  </si>
+  <si>
+    <t>Module 4 – Status</t>
+  </si>
+  <si>
+    <t>Module 4 - Completion Date</t>
+  </si>
+  <si>
+    <t>Module 5 – Status</t>
+  </si>
+  <si>
+    <t>Module 5 - Completion Date</t>
+  </si>
+  <si>
+    <t>Module 6 – Status</t>
+  </si>
+  <si>
+    <t>Module 6 - Completion Date</t>
+  </si>
+  <si>
+    <t>Microlearnings – Status</t>
   </si>
   <si>
     <t>Completion of Microlearnings</t>
@@ -163,6 +130,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -184,6 +152,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -265,52 +234,38 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AQ1"/>
+  <dimension ref="1:1"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AF1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AF1" activeCellId="0" sqref="AF1"/>
-      <selection pane="bottomLeft" activeCell="AP1" activeCellId="0" sqref="AP1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.2857142857143"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.5612244897959"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.5051020408163"/>
-    <col collapsed="false" hidden="false" max="13" min="11" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.0918367346939"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.0918367346939"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.0918367346939"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="17.0918367346939"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="17.0918367346939"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="17.0918367346939"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="17.0918367346939"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="17.0918367346939"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.0918367346939"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="17.0918367346939"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="17.0918367346939"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="17.0918367346939"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="20.4183673469388"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="16.9438775510204"/>
-    <col collapsed="false" hidden="false" max="42" min="40" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="44" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.4795918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.6122448979592"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.530612244898"/>
+    <col collapsed="false" hidden="false" max="14" min="12" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="11.530612244898"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.530612244898"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.530612244898"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.530612244898"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="11.530612244898"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.8367346938776"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="14.8673469387755"/>
+    <col collapsed="false" hidden="false" max="31" min="29" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="11.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="33" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -410,39 +365,18 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="ALY1" s="0"/>
+      <c r="ALZ1" s="0"/>
+      <c r="AMA1" s="0"/>
+      <c r="AMB1" s="0"/>
+      <c r="AMC1" s="0"/>
+      <c r="AMD1" s="0"/>
+      <c r="AME1" s="0"/>
+      <c r="AMF1" s="0"/>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/apps/templates/xlsx/kn.xlsx
+++ b/apps/templates/xlsx/kn.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId2"/>
@@ -204,17 +204,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -239,144 +247,146 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.4795918367347"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.6122448979592"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.530612244898"/>
-    <col collapsed="false" hidden="false" max="14" min="12" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="11.530612244898"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.530612244898"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.530612244898"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.530612244898"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="11.530612244898"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.8367346938776"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="14.8673469387755"/>
-    <col collapsed="false" hidden="false" max="31" min="29" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="11.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="33" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.8877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.2295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.5102040816327"/>
+    <col collapsed="false" hidden="false" max="8" min="4" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="32.2244897959184"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.0612244897959"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="14.5867346938776"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="31" min="29" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="33" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="true" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="ALY1" s="0"/>
-      <c r="ALZ1" s="0"/>
-      <c r="AMA1" s="0"/>
-      <c r="AMB1" s="0"/>
-      <c r="AMC1" s="0"/>
-      <c r="AMD1" s="0"/>
-      <c r="AME1" s="0"/>
-      <c r="AMF1" s="0"/>
-      <c r="AMG1" s="0"/>
-      <c r="AMH1" s="0"/>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
+      <c r="ALY1" s="4"/>
+      <c r="ALZ1" s="4"/>
+      <c r="AMA1" s="4"/>
+      <c r="AMB1" s="4"/>
+      <c r="AMC1" s="4"/>
+      <c r="AMD1" s="4"/>
+      <c r="AME1" s="4"/>
+      <c r="AMF1" s="4"/>
+      <c r="AMG1" s="4"/>
+      <c r="AMH1" s="4"/>
+      <c r="AMI1" s="4"/>
+      <c r="AMJ1" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/apps/templates/xlsx/kn.xlsx
+++ b/apps/templates/xlsx/kn.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>First Name</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>Trainer Sessions taken</t>
+  </si>
+  <si>
+    <t>Catchups taken</t>
+  </si>
+  <si>
+    <t>ESP</t>
   </si>
   <si>
     <t>Study total hours</t>
@@ -210,7 +216,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -244,38 +250,38 @@
   </sheetPr>
   <dimension ref="1:1"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="W1"/>
+      <selection pane="bottomLeft" activeCell="AF11" activeCellId="0" sqref="AF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.8877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.2295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.5102040816327"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="32.2244897959184"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.0612244897959"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="14.5867346938776"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="31" min="29" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="33" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="4" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="31.4540816326531"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="31" min="29" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="33" style="1" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -374,6 +380,12 @@
       </c>
       <c r="AF1" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="ALY1" s="4"/>
       <c r="ALZ1" s="4"/>
